--- a/openPyxl.xlsx
+++ b/openPyxl.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -33,12 +33,6 @@
     <font>
       <name val="Arial"/>
       <b val="1"/>
-      <sz val="14"/>
-      <vertAlign val="baseline"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -46,7 +40,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -56,6 +50,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00ccffff"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BFFFDB"/>
       </patternFill>
     </fill>
     <fill>
@@ -88,30 +87,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" pivotButton="0" quotePrefix="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="5">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="6"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="8">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="9"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" pivotButton="0" quotePrefix="0" xfId="10"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
     <cellStyle name="Style_1" xfId="1" hidden="0"/>
-    <cellStyle name="Bold_Font_header" xfId="2" hidden="0"/>
-    <cellStyle name="Bold_Font_subhead" xfId="3" hidden="0"/>
-    <cellStyle name="Attention_Style" xfId="4" hidden="0"/>
+    <cellStyle name="Style_1_Center" xfId="2" hidden="0"/>
+    <cellStyle name="Style_1_10px" xfId="3" hidden="0"/>
+    <cellStyle name="Style_1_ligh_Green_10px_center" xfId="4" hidden="0"/>
+    <cellStyle name="Style_1_Red_Center" xfId="5" hidden="0"/>
+    <cellStyle name="Bold_Font_subhead" xfId="6" hidden="0"/>
+    <cellStyle name="Style_1_Red_10px" xfId="7" hidden="0"/>
+    <cellStyle name="Style_1_10px_center" xfId="8" hidden="0"/>
+    <cellStyle name="Ok_Style" xfId="9" hidden="0"/>
+    <cellStyle name="Attention_Style" xfId="10" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -504,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,18 +546,18 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
     <col width="44" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="46" customWidth="1" min="5" max="5"/>
-    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="48" customWidth="1" min="5" max="5"/>
+    <col width="56" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="11" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
     <col width="47" customWidth="1" min="9" max="9"/>
-    <col width="10" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
-    <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="16" customWidth="1" min="13" max="13"/>
+    <col width="43" customWidth="1" min="12" max="12"/>
+    <col width="41" customWidth="1" min="13" max="13"/>
     <col width="25" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
@@ -554,82 +587,137 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="3" t="inlineStr">
+        <is>
+          <t>117342, г. Москва, ул Бутлерова, дом 17, БЦ Нео Гео</t>
+        </is>
+      </c>
+      <c r="G3" s="3" t="n"/>
+      <c r="H3" s="3" t="n"/>
+      <c r="I3" s="3" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="4" t="inlineStr">
         <is>
           <t>Для Компании</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ООО " МИГ" "ТУЛАТРАНС"</t>
-        </is>
-      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>МИХАЙЛОВ ДМИТРИЙ АНАТОЛЬЕВИЧ</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="4" t="n"/>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>ПИШИТЕ WHATSAPP +7(926)862-02-09</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="n"/>
+      <c r="H4" s="3" t="n"/>
+      <c r="I4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>ИНН</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>7105033616</t>
-        </is>
-      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>781650322504</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n"/>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="4" t="n"/>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>ЗВОНИТЕ 8 (495) 021-22-28</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="n"/>
+      <c r="H5" s="3" t="n"/>
+      <c r="I5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="4" t="inlineStr">
         <is>
           <t>ОГРН</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1047100576115</t>
-        </is>
-      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>309784704100485</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n"/>
+      <c r="D6" s="4" t="n"/>
+      <c r="E6" s="4" t="n"/>
+      <c r="F6" s="3" t="inlineStr">
+        <is>
+          <t>ПИШИТЕ YOURSPEC@YOURSPEC.NET</t>
+        </is>
+      </c>
+      <c r="G6" s="3" t="n"/>
+      <c r="H6" s="3" t="n"/>
+      <c r="I6" s="3" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="4" t="inlineStr">
         <is>
           <t>№ Лицензии</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>АК-28-000147</t>
-        </is>
-      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>АК-78-000126</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="n"/>
+      <c r="D7" s="4" t="n"/>
+      <c r="E7" s="4" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>yourspec.net</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="n"/>
+      <c r="H7" s="3" t="n"/>
+      <c r="I7" s="3" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" s="4" t="inlineStr">
         <is>
           <t>Дата Лицензии</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2019:6:20</t>
-        </is>
-      </c>
+      <c r="B8" s="4" t="inlineStr">
+        <is>
+          <t>10.02.2009</t>
+        </is>
+      </c>
+      <c r="C8" s="4" t="n"/>
+      <c r="D8" s="4" t="n"/>
+      <c r="E8" s="4" t="n"/>
     </row>
     <row r="9"/>
     <row r="10">
-      <c r="A10" s="2" t="inlineStr">
+      <c r="A10" s="5" t="inlineStr">
         <is>
           <t>ПАМЯТКА ПЕРЕВОЗЧИКУ:</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
-      <c r="G10" s="2" t="n"/>
-      <c r="H10" s="2" t="n"/>
-      <c r="I10" s="2" t="n"/>
+      <c r="B10" s="5" t="n"/>
+      <c r="C10" s="5" t="n"/>
+      <c r="D10" s="5" t="n"/>
+      <c r="E10" s="5" t="n"/>
+      <c r="F10" s="5" t="n"/>
+      <c r="G10" s="5" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -703,15 +791,15 @@
     </row>
     <row r="21"/>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
+      <c r="A22" s="5" t="inlineStr">
         <is>
           <t>ПЛАНОВАЯ ПРОВЕРКА БУДЕТ ПРОВЕДЕНА</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n"/>
-      <c r="C22" s="2" t="n"/>
-      <c r="D22" s="2" t="n"/>
-      <c r="E22" s="2" t="n"/>
+      <c r="B22" s="5" t="n"/>
+      <c r="C22" s="5" t="n"/>
+      <c r="D22" s="5" t="n"/>
+      <c r="E22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -721,85 +809,73 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+      <c r="A24" s="6" t="inlineStr">
         <is>
           <t>Дата проведения проверки</t>
         </is>
       </c>
-      <c r="B24" s="3" t="inlineStr">
+      <c r="B24" s="6" t="inlineStr">
         <is>
           <t>с</t>
         </is>
       </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>04.10.2004</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
+      <c r="C24" s="6" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr">
         <is>
           <t>до</t>
         </is>
       </c>
-      <c r="E24" s="3" t="inlineStr"/>
+      <c r="E24" s="6" t="inlineStr"/>
     </row>
     <row r="25"/>
     <row r="26">
-      <c r="A26" s="2" t="inlineStr">
+      <c r="A26" s="5" t="inlineStr">
         <is>
           <t>ПРОКУРОРСКАЯ ПРОВЕРКА БУДЕТ ПРОВЕДЕНА</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
-      <c r="C26" s="2" t="n"/>
-      <c r="D26" s="2" t="n"/>
-      <c r="E26" s="2" t="n"/>
+      <c r="B26" s="5" t="n"/>
+      <c r="C26" s="5" t="n"/>
+      <c r="D26" s="5" t="n"/>
+      <c r="E26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Лицензионный контроль в сфере автомобильного транспорта, от 04.05.2011 № 99-ФЗ</t>
+          <t>Лицензионный контроль в соответствии с 99-ФЗ от 04.05.2011</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="inlineStr">
+      <c r="A28" s="6" t="inlineStr">
         <is>
           <t>Месяц проведения проверки</t>
         </is>
       </c>
-      <c r="B28" s="3" t="inlineStr">
+      <c r="B28" s="6" t="inlineStr">
         <is>
           <t>Рабочих дней</t>
         </is>
       </c>
-      <c r="C28" s="3" t="inlineStr">
+      <c r="C28" s="6" t="inlineStr">
         <is>
           <t>Рабочих часов</t>
         </is>
       </c>
-      <c r="D28" s="3" t="inlineStr">
+      <c r="D28" s="6" t="inlineStr">
         <is>
           <t>Форма проведения проверки</t>
         </is>
       </c>
-      <c r="E28" s="3" t="inlineStr">
+      <c r="E28" s="6" t="inlineStr">
         <is>
           <t>Другие причины проверки</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>04.10.2004</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>04.10.2004</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
@@ -808,19 +884,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>от 04.05.2011 №99-ФЗ ст.19 п.9 пп.1, пп.3</t>
+          <t>от 04.05.2011 №99-ФЗ ст.19 п.9 пп.1, пп.235</t>
         </is>
       </c>
     </row>
     <row r="30"/>
     <row r="31">
-      <c r="A31" s="2" t="inlineStr">
+      <c r="A31" s="5" t="inlineStr">
         <is>
           <t>ТРЕБУЕТСЯ СДЕЛАТЬ</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n"/>
-      <c r="C31" s="2" t="n"/>
+      <c r="B31" s="5" t="n"/>
+      <c r="C31" s="5" t="n"/>
       <c r="D31" s="2" t="inlineStr">
         <is>
           <t>НАЙДЕН ТРАНСПОРТ В РЕЕСТРЕ ЛИЦЕНЗИЙ</t>
@@ -842,9 +918,9 @@
       <c r="N31" s="2" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="n"/>
-      <c r="B32" s="2" t="n"/>
-      <c r="C32" s="2" t="n"/>
+      <c r="A32" s="5" t="n"/>
+      <c r="B32" s="5" t="n"/>
+      <c r="C32" s="5" t="n"/>
       <c r="D32" s="2" t="n"/>
       <c r="E32" s="2" t="n"/>
       <c r="F32" s="2" t="n"/>
@@ -858,275 +934,267 @@
       <c r="N32" s="2" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="inlineStr">
+      <c r="A33" s="7" t="inlineStr">
         <is>
           <t>Категорирование</t>
         </is>
       </c>
-      <c r="B33" s="3" t="inlineStr">
+      <c r="B33" s="7" t="inlineStr">
         <is>
           <t>Оценка уязвимости</t>
         </is>
       </c>
-      <c r="C33" s="3" t="inlineStr">
+      <c r="C33" s="7" t="inlineStr">
         <is>
           <t>План безопасности</t>
         </is>
       </c>
-      <c r="D33" s="3" t="inlineStr">
+      <c r="D33" s="8" t="inlineStr">
         <is>
           <t>Модель по ПТС</t>
         </is>
       </c>
-      <c r="E33" s="3" t="inlineStr">
+      <c r="E33" s="8" t="inlineStr">
         <is>
           <t>Гос. рег. номер</t>
         </is>
       </c>
-      <c r="F33" s="3" t="inlineStr">
+      <c r="F33" s="8" t="inlineStr">
         <is>
           <t>VIN</t>
         </is>
       </c>
-      <c r="G33" s="3" t="inlineStr">
+      <c r="G33" s="8" t="inlineStr">
         <is>
           <t>Право владения</t>
         </is>
       </c>
-      <c r="H33" s="3" t="inlineStr">
+      <c r="H33" s="8" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
       </c>
-      <c r="I33" s="3" t="inlineStr">
+      <c r="I33" s="8" t="inlineStr">
         <is>
           <t>№ реестра</t>
         </is>
       </c>
-      <c r="J33" s="3" t="inlineStr">
+      <c r="J33" s="8" t="inlineStr">
         <is>
           <t>АТП №</t>
         </is>
       </c>
-      <c r="K33" s="3" t="inlineStr">
+      <c r="K33" s="8" t="inlineStr">
         <is>
           <t>Тип транспорта</t>
         </is>
       </c>
-      <c r="L33" s="3" t="inlineStr">
+      <c r="L33" s="8" t="inlineStr">
         <is>
           <t>Модель из Реестра</t>
         </is>
       </c>
-      <c r="M33" s="3" t="inlineStr">
+      <c r="M33" s="8" t="inlineStr">
         <is>
           <t>Собственник</t>
         </is>
       </c>
-      <c r="N33" s="3" t="inlineStr">
+      <c r="N33" s="8" t="inlineStr">
         <is>
           <t>Категория транспорта</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>H980CB178</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>XL9AA18CF03003452</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2025:3:1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>АТП0342073</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>BOVA FHD 12.280/1</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="10" t="inlineStr">
         <is>
           <t>Категорировать</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B35" s="10" t="inlineStr">
         <is>
           <t>Требуется оценка уязвимости</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
+      <c r="C35" s="10" t="inlineStr">
         <is>
           <t>Требуется план безопасности</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Е939ТС</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Собственность</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr"/>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>O837BH198</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>LКLR1КSJ17В003161</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>2025:3:16</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>AB61960</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>YE281500A01D19372</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>2024:12:31</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>АТП0219663</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>VAN HOOL 815</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="10" t="inlineStr">
         <is>
           <t>Категорировать</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B37" s="10" t="inlineStr">
         <is>
           <t>Требуется оценка уязвимости</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
+      <c r="C37" s="10" t="inlineStr">
         <is>
           <t>Требуется план безопасности</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Е939ТС</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Собственность</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>Категорировать</t>
-        </is>
-      </c>
-      <c r="B36" s="4" t="inlineStr">
-        <is>
-          <t>Требуется оценка уязвимости</t>
-        </is>
-      </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>Требуется план безопасности</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Е939ТС</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Собственность</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr"/>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>Н/Д</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>Категорировать</t>
-        </is>
-      </c>
-      <c r="B37" s="4" t="inlineStr">
-        <is>
-          <t>Требуется оценка уязвимости</t>
-        </is>
-      </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>Требуется план безопасности</t>
-        </is>
-      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Е939ТС</t>
+          <t>K232HH152</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Н/Д</t>
+          <t>LА6R1НSК1СВ101614</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1158,6 +1226,2457 @@
       <c r="N37" t="inlineStr">
         <is>
           <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>O685УC178</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>WDB35646513072141</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>АТП0219664</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>MERCEDES-BENZ 0404-15R</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>C929PO161</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>LA6R1HSKXCB203588</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>АТП0234053</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQ6129Y KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>T292PE161</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>LA6R1HSK3CB101601</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>2029:12:31</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>АТП0234054</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQB6129Y
+KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>E041OH98</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>VF6SFR11200011048</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>АТП0219662</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>PEHO-T-RVI (F)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B42" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C42" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>X568CT178</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>LZYTATE6071013427</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>K915XM178</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>LZYTAT06470000467</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>АТП0140848</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>YUTONG ZK6129H</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>ООО "АТВ", г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>H980CB178</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>XL9AA18CF03003452</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>2025:3:1</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>АТП0342073</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>BOVA FHD 12.280/1</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B45" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C45" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>O837BH198</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>LКLR1КSJ17В003161</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>2025:3:16</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>AB61960</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>YE281500A01D19372</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>2024:12:31</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>АТП0219663</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>VAN HOOL 815</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B47" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C47" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>K232HH152</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>LА6R1НSК1СВ101614</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>O685УC178</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>WDB35646513072141</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>АТП0219664</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>MERCEDES-BENZ 0404-15R</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>C929PO161</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>LA6R1HSKXCB203588</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>АТП0234053</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQ6129Y KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>T292PE161</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>LA6R1HSK3CB101601</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>2029:12:31</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>АТП0234054</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQB6129Y
+KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>E041OH98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>VF6SFR11200011048</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>АТП0219662</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>PEHO-T-RVI (F)</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B52" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C52" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>X568CT178</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>LZYTATE6071013427</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>K915XM178</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>LZYTAT06470000467</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>АТП0140848</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>YUTONG ZK6129H</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>ООО "АТВ", г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>H980CB178</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>XL9AA18CF03003452</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>2025:3:1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>АТП0342073</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>BOVA FHD 12.280/1</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B55" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C55" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>O837BH198</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>LКLR1КSJ17В003161</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>2025:3:16</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>AB61960</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>YE281500A01D19372</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>2024:12:31</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>АТП0219663</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>VAN HOOL 815</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B57" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C57" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>K232HH152</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>LА6R1НSК1СВ101614</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>O685УC178</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>WDB35646513072141</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>АТП0219664</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>MERCEDES-BENZ 0404-15R</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>C929PO161</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>LA6R1HSKXCB203588</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>АТП0234053</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQ6129Y KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>T292PE161</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>LA6R1HSK3CB101601</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>2029:12:31</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>АТП0234054</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQB6129Y
+KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>E041OH98</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>VF6SFR11200011048</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>АТП0219662</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>PEHO-T-RVI (F)</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B62" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C62" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>X568CT178</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>LZYTATE6071013427</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>K915XM178</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>LZYTAT06470000467</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>АТП0140848</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>YUTONG ZK6129H</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>ООО "АТВ", г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>H980CB178</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>XL9AA18CF03003452</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2025:3:1</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>АТП0342073</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>BOVA FHD 12.280/1</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B65" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C65" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>O837BH198</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>LКLR1КSJ17В003161</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>2025:3:16</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>AB61960</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>YE281500A01D19372</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>2024:12:31</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>АТП0219663</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>VAN HOOL 815</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B67" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C67" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>K232HH152</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>LА6R1НSК1СВ101614</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>O685УC178</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>WDB35646513072141</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>АТП0219664</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>MERCEDES-BENZ 0404-15R</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>C929PO161</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>LA6R1HSKXCB203588</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>АТП0234053</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQ6129Y KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>T292PE161</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>LA6R1HSK3CB101601</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>2029:12:31</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>АТП0234054</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQB6129Y
+KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>E041OH98</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>VF6SFR11200011048</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>АТП0219662</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>PEHO-T-RVI (F)</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B72" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C72" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>X568CT178</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>LZYTATE6071013427</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>K915XM178</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>LZYTAT06470000467</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>АТП0140848</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>YUTONG ZK6129H</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>ООО "АТВ", г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>H980CB178</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>XL9AA18CF03003452</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>2025:3:1</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>АТП0342073</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>BOVA FHD 12.280/1</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B75" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C75" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>O837BH198</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>LКLR1КSJ17В003161</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>2025:3:16</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>AB61960</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>YE281500A01D19372</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>2024:12:31</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>АТП0219663</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>VAN HOOL 815</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B77" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C77" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>K232HH152</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>LА6R1НSК1СВ101614</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>O685УC178</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>WDB35646513072141</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>АТП0219664</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>MERCEDES-BENZ 0404-15R</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>C929PO161</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>LA6R1HSKXCB203588</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>АТП0234053</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQ6129Y KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>T292PE161</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>LA6R1HSK3CB101601</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>2029:12:31</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>АТП0234054</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>КИНГ ЛОНГ XMQB6129Y
+KING LONG XMQ6129Y</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>ИП Ксенофонтов Ф.Ю., г. Псков</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>E041OH98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>VF6SFR11200011048</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>АТП0219662</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>PEHO-T-RVI (F)</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>ИП Михайлов Д.А., г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>первая</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="10" t="inlineStr">
+        <is>
+          <t>Категорировать</t>
+        </is>
+      </c>
+      <c r="B82" s="10" t="inlineStr">
+        <is>
+          <t>Требуется оценка уязвимости</t>
+        </is>
+      </c>
+      <c r="C82" s="10" t="inlineStr">
+        <is>
+          <t>Требуется план безопасности</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>X568CT178</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>LZYTATE6071013427</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Собственность</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>Н/Д</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="9" t="inlineStr">
+        <is>
+          <t>Не требуется</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>K915XM178</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>LZYTAT06470000467</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>2023:10:31</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>АТП0140848</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>автобус</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>YUTONG ZK6129H</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>ООО "АТВ", г. Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>первая</t>
         </is>
       </c>
     </row>

--- a/openPyxl.xlsx
+++ b/openPyxl.xlsx
@@ -546,19 +546,19 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="44" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="48" customWidth="1" min="5" max="5"/>
-    <col width="56" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
+    <col width="30" customWidth="1" min="5" max="5"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
     <col width="15" customWidth="1" min="8" max="8"/>
-    <col width="47" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
     <col width="15" customWidth="1" min="10" max="10"/>
     <col width="19" customWidth="1" min="11" max="11"/>
     <col width="43" customWidth="1" min="12" max="12"/>
     <col width="41" customWidth="1" min="13" max="13"/>
-    <col width="25" customWidth="1" min="14" max="14"/>
+    <col width="30" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1" ht="40" customHeight="1">

--- a/openPyxl.xlsx
+++ b/openPyxl.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,8 +422,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
-    <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="54" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="28" customWidth="1" min="5" max="5"/>
+    <col width="36" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -446,12 +449,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5047227021</t>
+          <t>2505008340</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ИНН не найден</t>
+          <t>ИНН найден</t>
         </is>
       </c>
     </row>
@@ -463,7 +466,648 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Неизвестно</t>
+          <t>Общество с ограниченной ответственностью "ФУРМАН"</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Реестровый номер</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Дата внесения в Реестр</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Марка</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Модель</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Идентификационный номер</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Основание для внесения в Реестр</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>АТТ0018923</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>KL5US65RDBP006200</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>АТТ0018924</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>KLВUD650НТP000260</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>АТТ0018925</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>BH 117-H3</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>KL2UL59EDХP000062</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>АТТ0018926</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>BH 120F</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>KL5US65RDCP014069</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>АТТ0018927</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KL5US65JDAP003478</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>АТТ0018928</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>KL2UL65ED7P001729</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>АТТ0018929</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>KL5US65RDAP004360</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>АТТ0018930</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KL2UL65HD9P002392</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>АТТ0018931</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>KLВUD650НТP000473</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>АТТ0018932</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KL2UL65ED9P001651</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>АТТ0018933</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>BH 120F</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KLВUD650НVP000465</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>АТТ0018934</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KL2UD650HVP000609</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>АТТ0018935</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KL2UL65EDVP000763</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>АТТ0018936</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BH 117-Н6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KL2UL61EDХP000296</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>АТТ0018937</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BH 117-Н6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KL2UL61EDХP000350</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>АТТ0018938</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>BH 120F</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KL5US65JD8P002112</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>АТТ0018939</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>BH 117-H3</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>KL5UR61KD3P001259</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>АТТ0018940</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>BH 120</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KL5US65KD7P003393</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>АТТ0018941</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2020:12:22</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DAEWOO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>BH 120F</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KL5US65JD8P002138</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Решение от 22.12.2020 № АТ/АВ/3</t>
         </is>
       </c>
     </row>
